--- a/dynamo-integration-import/src/test/resources/importer_rows3.xlsx
+++ b/dynamo-integration-import/src/test/resources/importer_rows3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D6137-965C-4060-91DB-89A6243CB421}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Bas</t>
   </si>
@@ -58,12 +59,15 @@
   </si>
   <si>
     <t>SEPARATOR</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,66 +465,82 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>3.5</v>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>6.66</v>
       </c>
     </row>
   </sheetData>
